--- a/McD_Price.xlsx
+++ b/McD_Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocksun1222\Documents\Project\Python\Scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010FB79-9635-4299-B6A5-A747DD018140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F008C-BA0C-4BC6-882F-A52E5527FA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mar 06" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Mar 22" sheetId="3" r:id="rId3"/>
     <sheet name="Mar 23" sheetId="4" r:id="rId4"/>
     <sheet name="Apr 24" sheetId="5" r:id="rId5"/>
+    <sheet name="Nov 13" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="260">
   <si>
     <t>Name</t>
   </si>
@@ -636,6 +637,174 @@
   </si>
   <si>
     <t>Breakfast Burrito [290.0 Cals]</t>
+  </si>
+  <si>
+    <t>$6.89</t>
+  </si>
+  <si>
+    <t>$7.09</t>
+  </si>
+  <si>
+    <t>$7.89</t>
+  </si>
+  <si>
+    <t>Sausage, Egg &amp; Cheese McGriddles Extra Value Meal [680.0 Cals]</t>
+  </si>
+  <si>
+    <t>$7.19</t>
+  </si>
+  <si>
+    <t>Bacon, Egg &amp; Cheese McGriddles Extra Value Meal [560.0 Cals]</t>
+  </si>
+  <si>
+    <t>Sausage McGriddle Extra Value Meal [560.0 Cals]</t>
+  </si>
+  <si>
+    <t>$6.79</t>
+  </si>
+  <si>
+    <t>$6.29</t>
+  </si>
+  <si>
+    <t>$1.59</t>
+  </si>
+  <si>
+    <t>$17.59</t>
+  </si>
+  <si>
+    <t>$2.69</t>
+  </si>
+  <si>
+    <t>$3.19</t>
+  </si>
+  <si>
+    <t>$2.19</t>
+  </si>
+  <si>
+    <t>$3.29</t>
+  </si>
+  <si>
+    <t>$1.49</t>
+  </si>
+  <si>
+    <t>$1.39</t>
+  </si>
+  <si>
+    <t>Blue Raspberry Minute Maid Slushie [190.0 Cals]</t>
+  </si>
+  <si>
+    <t>$2.99</t>
+  </si>
+  <si>
+    <t>Fruit Punch Minute Maid Slushie [190.0 Cals]</t>
+  </si>
+  <si>
+    <t>Strawberry Banana Smoothie [130.0 Cals]</t>
+  </si>
+  <si>
+    <t>$2.39</t>
+  </si>
+  <si>
+    <t>$2.09</t>
+  </si>
+  <si>
+    <t>$1.89</t>
+  </si>
+  <si>
+    <t>$2.49</t>
+  </si>
+  <si>
+    <t>$4.59</t>
+  </si>
+  <si>
+    <t>McGriddle [310-370 Cals]</t>
+  </si>
+  <si>
+    <t>$1.09</t>
+  </si>
+  <si>
+    <t>$1.29</t>
+  </si>
+  <si>
+    <t>2 Baked Apple Pies [540.0 Cals]</t>
+  </si>
+  <si>
+    <t>$1.99</t>
+  </si>
+  <si>
+    <t>12 Li'l Donuts Assorted [2220.0 Cals]</t>
+  </si>
+  <si>
+    <t>$9.49</t>
+  </si>
+  <si>
+    <t>Pick Your Own 12 Li'l Donuts [1920-2400 Cals]</t>
+  </si>
+  <si>
+    <t>$10.39</t>
+  </si>
+  <si>
+    <t>6 Li'l Donuts Assorted [1110.0 Cals]</t>
+  </si>
+  <si>
+    <t>$4.99</t>
+  </si>
+  <si>
+    <t>Pick Your Own 6 Li'l Donuts [960-1200 Cals]</t>
+  </si>
+  <si>
+    <t>$5.49</t>
+  </si>
+  <si>
+    <t>Pick Your Own 2 Li'l Donuts [320-400 Cals]</t>
+  </si>
+  <si>
+    <t>Boston Cream Donut [190.0 Cals]</t>
+  </si>
+  <si>
+    <t>Maple Iced and Caramel Filled Donut [200.0 Cals]</t>
+  </si>
+  <si>
+    <t>Apple Fritter Donut [180.0 Cals]</t>
+  </si>
+  <si>
+    <t>Sprinkle Donut [190.0 Cals]</t>
+  </si>
+  <si>
+    <t>Strawberry Jelly Powdered Donut [160.0 Cals]</t>
+  </si>
+  <si>
+    <t>$6.59</t>
+  </si>
+  <si>
+    <t>$4.39</t>
+  </si>
+  <si>
+    <t>$8.19</t>
+  </si>
+  <si>
+    <t>$2.79</t>
+  </si>
+  <si>
+    <t>Sausage, Egg &amp; Cheese McGriddles [520.0 Cals]</t>
+  </si>
+  <si>
+    <t>$4.69</t>
+  </si>
+  <si>
+    <t>Bacon, Egg &amp; Cheese McGriddles [400.0 Cals]</t>
+  </si>
+  <si>
+    <t>Sausage McGriddles [400.0 Cals]</t>
+  </si>
+  <si>
+    <t>$4.29</t>
+  </si>
+  <si>
+    <t>Hotcakes [350.0 Cals]</t>
+  </si>
+  <si>
+    <t>$3.69</t>
   </si>
 </sst>
 </file>
@@ -7252,7 +7421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A230" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -9316,10 +9485,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10063,68 +10232,951 @@
         <v>1.79</v>
       </c>
     </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="4">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="4">
-        <v>3.99</v>
+        <v>255</v>
+      </c>
+      <c r="B104" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="4">
-        <v>4.1900000000000004</v>
+        <v>256</v>
+      </c>
+      <c r="B105" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="4">
-        <v>4.1900000000000004</v>
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="4">
-        <v>1.99</v>
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="4">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>39</v>
-      </c>
-      <c r="B109" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="4">
-        <v>3.39</v>
+        <v>258</v>
+      </c>
+      <c r="B108" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
